--- a/src/main/resources/static/excel/receiptDetail.xlsx
+++ b/src/main/resources/static/excel/receiptDetail.xlsx
@@ -99,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -140,6 +140,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -148,6 +162,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -156,15 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,25 +242,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,47 +263,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,28 +272,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,17 +510,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,6 +549,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -566,9 +575,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,161 +598,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>

--- a/src/main/resources/static/excel/receiptDetail.xlsx
+++ b/src/main/resources/static/excel/receiptDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11920"/>
+    <workbookView windowWidth="28000" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>任务单号</t>
   </si>
@@ -55,6 +55,30 @@
     <t>项目负责人</t>
   </si>
   <si>
+    <t>签收人</t>
+  </si>
+  <si>
+    <t>报告号</t>
+  </si>
+  <si>
+    <t>报告日期</t>
+  </si>
+  <si>
+    <t>回款日期</t>
+  </si>
+  <si>
+    <t>回款金额</t>
+  </si>
+  <si>
+    <t>未到账</t>
+  </si>
+  <si>
+    <t>坏账准备</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>{{$fe:list t.taskId</t>
   </si>
   <si>
@@ -91,7 +115,28 @@
     <t>t.noTaxAmount</t>
   </si>
   <si>
-    <t>t.contractUser}}</t>
+    <t>t.contractUser</t>
+  </si>
+  <si>
+    <t>t.invoiceSignatory</t>
+  </si>
+  <si>
+    <t>t.reportNumber</t>
+  </si>
+  <si>
+    <t>t.reportDate</t>
+  </si>
+  <si>
+    <t>t.receivedDate</t>
+  </si>
+  <si>
+    <t>t.receivedAmount</t>
+  </si>
+  <si>
+    <t>t.noReceivedAmount</t>
+  </si>
+  <si>
+    <t>t.descprition}}</t>
   </si>
 </sst>
 </file>
@@ -99,12 +144,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -134,19 +179,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -154,9 +207,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +262,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -178,40 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,53 +300,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,13 +343,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,13 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,145 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,32 +549,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,17 +570,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,19 +584,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,153 +604,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -781,10 +826,10 @@
     <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1120,7 +1165,7 @@
     <col min="3" max="3" width="13.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,46 +1205,91 @@
       <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" ht="26" spans="1:13">
+    <row r="2" ht="26" spans="1:21">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13">

--- a/src/main/resources/static/excel/receiptDetail.xlsx
+++ b/src/main/resources/static/excel/receiptDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11900"/>
+    <workbookView windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>t.contractNumber</t>
   </si>
   <si>
-    <t>t.invoiceDate</t>
+    <t>fd:(t.invoiceDate;yyyy.MM.dd)</t>
   </si>
   <si>
     <t>t.createLimitPart</t>
@@ -124,10 +124,10 @@
     <t>t.reportNumber</t>
   </si>
   <si>
-    <t>t.reportDate</t>
-  </si>
-  <si>
-    <t>t.receivedDate</t>
+    <t>fd:(t.reportDate;yyyy.MM.dd)</t>
+  </si>
+  <si>
+    <t>fd:(t.receivedDate;yyyy.MM.dd)</t>
   </si>
   <si>
     <t>t.receivedAmount</t>
@@ -144,12 +144,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -179,7 +179,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,36 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -233,24 +233,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,36 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -300,6 +255,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -308,15 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,67 +343,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,109 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +549,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -570,13 +590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,8 +608,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,30 +625,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,148 +648,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -826,10 +826,10 @@
     <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,8 +1156,8 @@
   <sheetPr/>
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>

--- a/src/main/resources/static/excel/receiptDetail.xlsx
+++ b/src/main/resources/static/excel/receiptDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11880"/>
+    <workbookView windowWidth="28000" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,12 +144,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -192,26 +192,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,19 +215,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,6 +231,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -255,68 +299,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,151 +343,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,24 +518,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,41 +555,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -614,17 +579,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,147 +602,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,7 +793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,13 +826,16 @@
     <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,7 +1160,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1205,28 +1208,28 @@
       <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
     </row>

--- a/src/main/resources/static/excel/receiptDetail.xlsx
+++ b/src/main/resources/static/excel/receiptDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11900"/>
+    <workbookView windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,13 +106,13 @@
     <t>t.invoiceProject</t>
   </si>
   <si>
-    <t>t.contractAmount</t>
-  </si>
-  <si>
-    <t>t.invoiceAmount</t>
-  </si>
-  <si>
-    <t>t.noTaxAmount</t>
+    <t>fn:(t.contractAmount;###.##)</t>
+  </si>
+  <si>
+    <t>fn:(t.invoiceAmount;###.##)</t>
+  </si>
+  <si>
+    <t>fn:(t.noTaxAmount;###.##)</t>
   </si>
   <si>
     <t>t.contractUser</t>
@@ -130,10 +130,10 @@
     <t>fd:(t.receivedDate;yyyy.MM.dd)</t>
   </si>
   <si>
-    <t>t.receivedAmount</t>
-  </si>
-  <si>
-    <t>t.noReceivedAmount</t>
+    <t>fn:(t.receivedAmount;###.##)</t>
+  </si>
+  <si>
+    <t>fn:(t.noReceivedAmount;###.##)</t>
   </si>
   <si>
     <t>t.descprition}}</t>
@@ -145,11 +145,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -200,14 +200,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -218,6 +210,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +230,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -242,50 +249,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,7 +263,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,7 +278,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,13 +343,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,151 +415,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +555,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -566,24 +575,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,28 +594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,99 +617,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,43 +747,43 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>

--- a/src/main/resources/static/excel/receiptDetail.xlsx
+++ b/src/main/resources/static/excel/receiptDetail.xlsx
@@ -144,12 +144,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -179,21 +179,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,16 +269,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,93 +299,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,91 +343,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,85 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +549,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -559,6 +583,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -580,30 +630,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -617,179 +643,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -826,10 +826,10 @@
     <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">

--- a/src/main/resources/static/excel/receiptDetail.xlsx
+++ b/src/main/resources/static/excel/receiptDetail.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ideaProjects\invoice\src\main\resources\static\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>任务单号</t>
   </si>
@@ -48,10 +43,10 @@
     <t>项目</t>
   </si>
   <si>
-    <t>合同金额</t>
-  </si>
-  <si>
-    <t>发票金额</t>
+    <t xml:space="preserve"> 合同金额 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 发票金额 </t>
   </si>
   <si>
     <t>不含税金额</t>
@@ -111,6 +106,15 @@
     <t>t.invoiceProject</t>
   </si>
   <si>
+    <t>fn:(t.contractAmount;0.00)</t>
+  </si>
+  <si>
+    <t>fn:(t.invoiceAmount;0.00)</t>
+  </si>
+  <si>
+    <t>fn:(t.noTaxAmount;0.00)</t>
+  </si>
+  <si>
     <t>t.contractUser</t>
   </si>
   <si>
@@ -126,89 +130,49 @@
     <t>fd:(t.receivedDate;yyyy.MM.dd)</t>
   </si>
   <si>
+    <t>fn:(t.receivedAmount;0.00)</t>
+  </si>
+  <si>
     <t>t.descprition}}</t>
   </si>
   <si>
-    <t>fn:(t.contractAmount;0.00)</t>
-  </si>
-  <si>
-    <t>fn:(t.invoiceAmount;0.00)</t>
-  </si>
-  <si>
-    <t>fn:(t.noTaxAmount;0.00)</t>
-  </si>
-  <si>
-    <t>fn:(t.receivedAmount;0.00)</t>
-  </si>
-  <si>
     <t>fn:(t.noReceivedAmount;0.00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.badAmount;0.00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="6">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -216,86 +180,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="2" builtinId="6"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -308,7 +204,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -318,39 +214,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,131 +325,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -565,176 +490,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="13.5"/>
+    <col min="20" max="20" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="28.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="Q2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="R2" t="s">
         <v>38</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
       </c>
       <c r="S2" t="s">
         <v>40</v>
       </c>
+      <c r="T2" t="s">
+        <v>41</v>
+      </c>
       <c r="U2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/excel/receiptDetail.xlsx
+++ b/src/main/resources/static/excel/receiptDetail.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>任务单号</t>
   </si>
@@ -133,46 +133,380 @@
     <t>fn:(t.receivedAmount;0.00)</t>
   </si>
   <si>
+    <t>fn:(t.noReceivedAmount;0.00)</t>
+  </si>
+  <si>
+    <t>fn:(t.badAmount;0.00)</t>
+  </si>
+  <si>
     <t>t.descprition}}</t>
-  </si>
-  <si>
-    <t>fn:(t.noReceivedAmount;0.00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fn:(t.badAmount;0.00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -180,24 +514,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -246,7 +866,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,7 +901,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,24 +1104,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="A1" sqref="A1:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="20" max="20" width="25.25" customWidth="1"/>
+    <col min="1" max="21" width="12.9903846153846" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +1186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -622,18 +1242,18 @@
         <v>38</v>
       </c>
       <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>41</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>